--- a/medicine/Sexualité et sexologie/La_Fistinière/La_Fistinière.xlsx
+++ b/medicine/Sexualité et sexologie/La_Fistinière/La_Fistinière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Fistini%C3%A8re</t>
+          <t>La_Fistinière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fistinière est une maison d'hôtes gay destinée à la pratique du fist-fucking. Elle est située à Assigny dans le département du Cher (France).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Fistini%C3%A8re</t>
+          <t>La_Fistinière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François  Mallet et son mari Juan Carlos font l'acquisition en 2005 d'une ferme du XVIIe siècle à Assigny, dans le Cher[1], qu'ils transforment en maison d'hôtes réservée aux adeptes masculins du fist-fucking[2]. Après deux ans de travaux, La Fistinière ouvre ses portes[3],[4]. Nelly Mallet rejoint son frère dans le projet[5]. La maison accueille des pratiquants en provenance du monde entier[6],[7].
-En 2018, un changement de propriétaires et un élargissement au BDSM sont annoncés[8], mais les acheteurs se désistent quinze jours avant la signature définitive.
-Le 31 décembre 2018, La Fistinière ferme ses portes en tant que maison d'hôtes [9]. L'établissement poursuit en revanche une activité de services, qui propose ateliers, soirées et adhésion à un « cercle »[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François  Mallet et son mari Juan Carlos font l'acquisition en 2005 d'une ferme du XVIIe siècle à Assigny, dans le Cher, qu'ils transforment en maison d'hôtes réservée aux adeptes masculins du fist-fucking. Après deux ans de travaux, La Fistinière ouvre ses portes,. Nelly Mallet rejoint son frère dans le projet. La maison accueille des pratiquants en provenance du monde entier,.
+En 2018, un changement de propriétaires et un élargissement au BDSM sont annoncés, mais les acheteurs se désistent quinze jours avant la signature définitive.
+Le 31 décembre 2018, La Fistinière ferme ses portes en tant que maison d'hôtes . L'établissement poursuit en revanche une activité de services, qui propose ateliers, soirées et adhésion à un « cercle ».
 </t>
         </is>
       </c>
